--- a/data/trans_orig/P14C97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9CA158-4C09-4295-95E4-1D874387D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296BB8D-B57A-410C-85D1-07743227CFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95D05A7A-4470-4243-9320-0BBBF6605BED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A3A5FEB-E0C4-447B-A33F-747B4562F75F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>68,04%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,16 +104,16 @@
     <t>27,2%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>18,42%</t>
   </si>
   <si>
     <t>37,29%</t>
@@ -122,10 +122,10 @@
     <t>26,74%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,82 @@
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,31%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,61 +251,61 @@
     <t>64,67%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>24,88%</t>
+    <t>24,66%</t>
   </si>
   <si>
     <t>0%</t>
@@ -314,88 +317,88 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC909F6F-8C92-467D-BCBC-E71C118A24DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D29741-3FA6-4B3B-8DA4-DB4434E1B1A1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1146,7 +1149,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>108</v>
@@ -1155,13 +1158,13 @@
         <v>118982</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -1170,13 +1173,13 @@
         <v>167884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,13 +1194,13 @@
         <v>21147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1206,13 +1209,13 @@
         <v>37492</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -1221,13 +1224,13 @@
         <v>58639</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,13 +1245,13 @@
         <v>7759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1257,13 +1260,13 @@
         <v>9892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -1272,13 +1275,13 @@
         <v>17651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,7 +1337,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,13 +1349,13 @@
         <v>10954</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -1361,13 +1364,13 @@
         <v>23279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -1376,13 +1379,13 @@
         <v>34234</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,13 +1400,13 @@
         <v>4985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1412,13 +1415,13 @@
         <v>5850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -1427,13 +1430,13 @@
         <v>10835</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,13 +1451,13 @@
         <v>1000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1466,10 +1469,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1478,13 +1481,13 @@
         <v>1000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,13 +1555,13 @@
         <v>86866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
@@ -1567,13 +1570,13 @@
         <v>211691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>275</v>
@@ -1582,13 +1585,13 @@
         <v>298556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,13 +1606,13 @@
         <v>36930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -1618,13 +1621,13 @@
         <v>71528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -1633,13 +1636,13 @@
         <v>108459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1657,13 @@
         <v>10645</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -1669,13 +1672,13 @@
         <v>18356</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -1684,13 +1687,13 @@
         <v>29001</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296BB8D-B57A-410C-85D1-07743227CFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AEB29B-AEAF-4CF0-9E5C-F4A822F2F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A3A5FEB-E0C4-447B-A33F-747B4562F75F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49B02FAD-B1C9-485B-904E-9DA4DE9D898E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2016 (Tasa respuesta: 6,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>68,04%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>27,2%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,84%</t>
+    <t>14,46%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,61 +251,61 @@
     <t>64,67%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>30,18%</t>
   </si>
   <si>
     <t>0%</t>
@@ -317,88 +317,85 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>10,3%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>20,44%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D29741-3FA6-4B3B-8DA4-DB4434E1B1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB4BCE6-7F4E-47CC-96E5-B7A8FE39B1EF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1612,7 +1609,7 @@
         <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -1621,13 +1618,13 @@
         <v>71528</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -1636,13 +1633,13 @@
         <v>108459</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1654,13 @@
         <v>10645</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -1672,13 +1669,13 @@
         <v>18356</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -1687,13 +1684,13 @@
         <v>29001</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
